--- a/data/pca/factorExposure/factorExposure_2009-05-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-05-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01718876278345235</v>
+        <v>-0.01656374380699327</v>
       </c>
       <c r="C2">
-        <v>-0.001596128689246204</v>
+        <v>0.001100255809353416</v>
       </c>
       <c r="D2">
-        <v>0.00996495028980701</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.009810608277564985</v>
+      </c>
+      <c r="E2">
+        <v>0.002275960936066578</v>
+      </c>
+      <c r="F2">
+        <v>0.01189447946888884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08942235013407576</v>
+        <v>-0.09184318616583693</v>
       </c>
       <c r="C4">
-        <v>-0.02014364179241803</v>
+        <v>0.01541695991038033</v>
       </c>
       <c r="D4">
-        <v>0.07754579579160774</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08214841935735726</v>
+      </c>
+      <c r="E4">
+        <v>0.02717426710479778</v>
+      </c>
+      <c r="F4">
+        <v>-0.03262541900676318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-3.848438787027197e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4.75205727029962e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0001021225210109846</v>
+      </c>
+      <c r="E5">
+        <v>-3.956563884428791e-05</v>
+      </c>
+      <c r="F5">
+        <v>9.568215403079694e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1536212561042352</v>
+        <v>-0.1620606139376899</v>
       </c>
       <c r="C6">
-        <v>-0.0311322190085669</v>
+        <v>0.03021335700426936</v>
       </c>
       <c r="D6">
-        <v>-0.0362092741042034</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02655968170134052</v>
+      </c>
+      <c r="E6">
+        <v>0.01131973504168303</v>
+      </c>
+      <c r="F6">
+        <v>-0.04046777360878541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05990457193253187</v>
+        <v>-0.06222670162850816</v>
       </c>
       <c r="C7">
-        <v>-0.002111259392152292</v>
+        <v>-0.001098778376929823</v>
       </c>
       <c r="D7">
-        <v>0.04833963632125979</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0537923044955599</v>
+      </c>
+      <c r="E7">
+        <v>0.01549960607658001</v>
+      </c>
+      <c r="F7">
+        <v>-0.04925388568849835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06129941308299806</v>
+        <v>-0.05728780033433661</v>
       </c>
       <c r="C8">
-        <v>0.009822111530848837</v>
+        <v>-0.01159869956013934</v>
       </c>
       <c r="D8">
-        <v>0.0265607951000332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03017227853544653</v>
+      </c>
+      <c r="E8">
+        <v>0.01946213293393825</v>
+      </c>
+      <c r="F8">
+        <v>0.02883475429055655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06965664601513352</v>
+        <v>-0.07146765829232189</v>
       </c>
       <c r="C9">
-        <v>-0.01614724575246694</v>
+        <v>0.01098377877437078</v>
       </c>
       <c r="D9">
-        <v>0.08008646363283357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08580260193302255</v>
+      </c>
+      <c r="E9">
+        <v>0.02552383363868743</v>
+      </c>
+      <c r="F9">
+        <v>-0.0490228637962146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08593607202314554</v>
+        <v>-0.08739172296904422</v>
       </c>
       <c r="C10">
-        <v>-0.01674150579811704</v>
+        <v>0.02193300075466871</v>
       </c>
       <c r="D10">
-        <v>-0.1657572723749849</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1594053159101839</v>
+      </c>
+      <c r="E10">
+        <v>-0.03207627678695573</v>
+      </c>
+      <c r="F10">
+        <v>0.05849402177659191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09044725201151366</v>
+        <v>-0.08738662546835776</v>
       </c>
       <c r="C11">
-        <v>-0.01752534204335831</v>
+        <v>0.01226270799276179</v>
       </c>
       <c r="D11">
-        <v>0.1119411608953296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1183995691679417</v>
+      </c>
+      <c r="E11">
+        <v>0.05233581245096715</v>
+      </c>
+      <c r="F11">
+        <v>-0.02506423405085685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09760175191360404</v>
+        <v>-0.09160144191168033</v>
       </c>
       <c r="C12">
-        <v>-0.01621877018695213</v>
+        <v>0.01005889763889321</v>
       </c>
       <c r="D12">
-        <v>0.1192714023718454</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.133583749744727</v>
+      </c>
+      <c r="E12">
+        <v>0.05258797941669177</v>
+      </c>
+      <c r="F12">
+        <v>-0.03123047892968695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04502536232188206</v>
+        <v>-0.04373942283143811</v>
       </c>
       <c r="C13">
-        <v>-0.006796571786093917</v>
+        <v>0.003074067006797104</v>
       </c>
       <c r="D13">
-        <v>0.0450313833567833</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05426950026767746</v>
+      </c>
+      <c r="E13">
+        <v>0.0005087716113434018</v>
+      </c>
+      <c r="F13">
+        <v>-0.004335859089154808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02017082149210099</v>
+        <v>-0.02394629351659923</v>
       </c>
       <c r="C14">
-        <v>-0.01544973193621504</v>
+        <v>0.01421024028699309</v>
       </c>
       <c r="D14">
-        <v>0.03220473867634422</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03332983352572803</v>
+      </c>
+      <c r="E14">
+        <v>0.02252790943166039</v>
+      </c>
+      <c r="F14">
+        <v>-0.01187643104304791</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03446597751173174</v>
+        <v>-0.03443297036247765</v>
       </c>
       <c r="C15">
-        <v>-0.007725029653588902</v>
+        <v>0.00595767719806576</v>
       </c>
       <c r="D15">
-        <v>0.04602448496175777</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04661737114966406</v>
+      </c>
+      <c r="E15">
+        <v>0.008651724727617027</v>
+      </c>
+      <c r="F15">
+        <v>-0.02956844548164162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07456553640685873</v>
+        <v>-0.07209577482020285</v>
       </c>
       <c r="C16">
-        <v>-0.007684378057706464</v>
+        <v>0.002041554521236167</v>
       </c>
       <c r="D16">
-        <v>0.1158949611066206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1298232178725127</v>
+      </c>
+      <c r="E16">
+        <v>0.06511527957967964</v>
+      </c>
+      <c r="F16">
+        <v>-0.02845743733734706</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.001243655525695755</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0003483767381385975</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002070233443290995</v>
+      </c>
+      <c r="E17">
+        <v>0.001696061610612343</v>
+      </c>
+      <c r="F17">
+        <v>0.002353448769232602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02499087458282607</v>
+        <v>-0.04276904435649777</v>
       </c>
       <c r="C18">
-        <v>0.001781078442679687</v>
+        <v>-0.001690678671497666</v>
       </c>
       <c r="D18">
-        <v>0.02242653374645552</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01617387467789068</v>
+      </c>
+      <c r="E18">
+        <v>-0.004723148559376225</v>
+      </c>
+      <c r="F18">
+        <v>0.009094749515424119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06443689069160027</v>
+        <v>-0.06295357487094774</v>
       </c>
       <c r="C20">
-        <v>-0.005862686837199005</v>
+        <v>0.001938452029815831</v>
       </c>
       <c r="D20">
-        <v>0.07248570499249543</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07895151008592939</v>
+      </c>
+      <c r="E20">
+        <v>0.06200274210866379</v>
+      </c>
+      <c r="F20">
+        <v>-0.02950011094937956</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04078160069226267</v>
+        <v>-0.04244793627263656</v>
       </c>
       <c r="C21">
-        <v>-0.009972109791146893</v>
+        <v>0.007313385275963825</v>
       </c>
       <c r="D21">
-        <v>0.03423428625217464</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03595897581158985</v>
+      </c>
+      <c r="E21">
+        <v>0.002532011115617603</v>
+      </c>
+      <c r="F21">
+        <v>0.02470311459294428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04079016403010267</v>
+        <v>-0.04238179344219314</v>
       </c>
       <c r="C22">
-        <v>-0.00143005888560051</v>
+        <v>0.00103303039834803</v>
       </c>
       <c r="D22">
-        <v>0.0006301347343706166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.006660529464723492</v>
+      </c>
+      <c r="E22">
+        <v>0.03750067439752252</v>
+      </c>
+      <c r="F22">
+        <v>0.0480826305016827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04074511644641388</v>
+        <v>-0.04235092213748328</v>
       </c>
       <c r="C23">
-        <v>-0.001416202896293737</v>
+        <v>0.00102140401588097</v>
       </c>
       <c r="D23">
-        <v>0.000659068906916303</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.006675257895919913</v>
+      </c>
+      <c r="E23">
+        <v>0.03753057655881888</v>
+      </c>
+      <c r="F23">
+        <v>0.04813771397058911</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08179932164630478</v>
+        <v>-0.07793779443395397</v>
       </c>
       <c r="C24">
-        <v>-0.008231916830102128</v>
+        <v>0.002782651183769476</v>
       </c>
       <c r="D24">
-        <v>0.1171115386145017</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.122668787028468</v>
+      </c>
+      <c r="E24">
+        <v>0.05210048643233246</v>
+      </c>
+      <c r="F24">
+        <v>-0.0312445241723165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.0868148180954478</v>
+        <v>-0.08329618715507912</v>
       </c>
       <c r="C25">
-        <v>-0.01069546249646703</v>
+        <v>0.005799203019040722</v>
       </c>
       <c r="D25">
-        <v>0.1042779265730946</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1107885266383925</v>
+      </c>
+      <c r="E25">
+        <v>0.03566011320946649</v>
+      </c>
+      <c r="F25">
+        <v>-0.02823494442522166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05790056120761984</v>
+        <v>-0.06092586949623598</v>
       </c>
       <c r="C26">
-        <v>-0.01856945509551809</v>
+        <v>0.015317192443667</v>
       </c>
       <c r="D26">
-        <v>0.03471916283823864</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0449691117878186</v>
+      </c>
+      <c r="E26">
+        <v>0.03332074889665074</v>
+      </c>
+      <c r="F26">
+        <v>0.007589845728410288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1344030109851203</v>
+        <v>-0.1434895365175565</v>
       </c>
       <c r="C28">
-        <v>-0.01619638279746918</v>
+        <v>0.02392416925207459</v>
       </c>
       <c r="D28">
-        <v>-0.2641633977884444</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2583951915916482</v>
+      </c>
+      <c r="E28">
+        <v>-0.06648878090515924</v>
+      </c>
+      <c r="F28">
+        <v>-0.004432861808961424</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02628819950208601</v>
+        <v>-0.02890477584626703</v>
       </c>
       <c r="C29">
-        <v>-0.01011395484677979</v>
+        <v>0.009324417900232862</v>
       </c>
       <c r="D29">
-        <v>0.02967177978221797</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03036714283257892</v>
+      </c>
+      <c r="E29">
+        <v>0.0187588698519353</v>
+      </c>
+      <c r="F29">
+        <v>0.01314730939704986</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05901302344822019</v>
+        <v>-0.05637618598255878</v>
       </c>
       <c r="C30">
-        <v>-0.008083944427825333</v>
+        <v>0.002972596953499752</v>
       </c>
       <c r="D30">
-        <v>0.08022644119247667</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08842851239216463</v>
+      </c>
+      <c r="E30">
+        <v>0.0147962928437005</v>
+      </c>
+      <c r="F30">
+        <v>-0.07836878253749333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05070285770287283</v>
+        <v>-0.05119577228492068</v>
       </c>
       <c r="C31">
-        <v>-0.01778039457045448</v>
+        <v>0.01647225314002192</v>
       </c>
       <c r="D31">
-        <v>0.02179131649712129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02444799446869256</v>
+      </c>
+      <c r="E31">
+        <v>0.02954951219446094</v>
+      </c>
+      <c r="F31">
+        <v>0.001304971987780283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04803180968005367</v>
+        <v>-0.05191553119575124</v>
       </c>
       <c r="C32">
-        <v>-0.002393904517759835</v>
+        <v>-0.0009012317344302257</v>
       </c>
       <c r="D32">
-        <v>0.02839650157473454</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03330916769320862</v>
+      </c>
+      <c r="E32">
+        <v>0.03513503718718457</v>
+      </c>
+      <c r="F32">
+        <v>-0.003021886000199434</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09109854785381484</v>
+        <v>-0.09070871613841021</v>
       </c>
       <c r="C33">
-        <v>-0.01417804928062428</v>
+        <v>0.00827581619378492</v>
       </c>
       <c r="D33">
-        <v>0.0910614514132608</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1046875625918423</v>
+      </c>
+      <c r="E33">
+        <v>0.04940517784624267</v>
+      </c>
+      <c r="F33">
+        <v>-0.04287628501230873</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.0688925501391708</v>
+        <v>-0.06732357846846634</v>
       </c>
       <c r="C34">
-        <v>-0.01592021364648251</v>
+        <v>0.01116163629786497</v>
       </c>
       <c r="D34">
-        <v>0.09812731355776294</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1100374481441569</v>
+      </c>
+      <c r="E34">
+        <v>0.03924626827494237</v>
+      </c>
+      <c r="F34">
+        <v>-0.03497218579588606</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02603465818470491</v>
+        <v>-0.02750919625053965</v>
       </c>
       <c r="C35">
-        <v>-0.004230326104474865</v>
+        <v>0.003704576579163454</v>
       </c>
       <c r="D35">
-        <v>0.008193191334671954</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01169560856431418</v>
+      </c>
+      <c r="E35">
+        <v>0.01579996575636179</v>
+      </c>
+      <c r="F35">
+        <v>-9.901756827752976e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02531821700904339</v>
+        <v>-0.02873961779424291</v>
       </c>
       <c r="C36">
-        <v>-0.008355440735150602</v>
+        <v>0.007274239734384022</v>
       </c>
       <c r="D36">
-        <v>0.03860422539268605</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0400427151697077</v>
+      </c>
+      <c r="E36">
+        <v>0.01997830643147386</v>
+      </c>
+      <c r="F36">
+        <v>-0.01480021392336873</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.002273250883643512</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0006396257720074971</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003260654940366796</v>
+      </c>
+      <c r="E37">
+        <v>0.0004437139145355826</v>
+      </c>
+      <c r="F37">
+        <v>0.001237949776232692</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1100634690703837</v>
+        <v>-0.09908089226243877</v>
       </c>
       <c r="C39">
-        <v>-0.02324093526065763</v>
+        <v>0.01678634511370107</v>
       </c>
       <c r="D39">
-        <v>0.1495737970016932</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1525132116141761</v>
+      </c>
+      <c r="E39">
+        <v>0.06221182254987544</v>
+      </c>
+      <c r="F39">
+        <v>-0.0213416957291731</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03880213376691068</v>
+        <v>-0.04434240332853852</v>
       </c>
       <c r="C40">
-        <v>-0.009584014681706058</v>
+        <v>0.008229529024911291</v>
       </c>
       <c r="D40">
-        <v>0.02439615032909066</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03306446162768788</v>
+      </c>
+      <c r="E40">
+        <v>0.003772994921442466</v>
+      </c>
+      <c r="F40">
+        <v>0.0158395835365462</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02471171746790952</v>
+        <v>-0.02712859264292529</v>
       </c>
       <c r="C41">
-        <v>-0.007593672238162827</v>
+        <v>0.006951865011679057</v>
       </c>
       <c r="D41">
-        <v>0.00773698235720153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.009817065229767614</v>
+      </c>
+      <c r="E41">
+        <v>0.0131586567334672</v>
+      </c>
+      <c r="F41">
+        <v>0.007397254067454014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04154836037772578</v>
+        <v>-0.03999221443615454</v>
       </c>
       <c r="C43">
-        <v>-0.008598893494562112</v>
+        <v>0.007865000209542068</v>
       </c>
       <c r="D43">
-        <v>0.0177452618381257</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0195364903024721</v>
+      </c>
+      <c r="E43">
+        <v>0.02762085167162432</v>
+      </c>
+      <c r="F43">
+        <v>0.01629342166034944</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06776349257860367</v>
+        <v>-0.0774701174544327</v>
       </c>
       <c r="C44">
-        <v>-0.0243707203907131</v>
+        <v>0.02044214771335255</v>
       </c>
       <c r="D44">
-        <v>0.09485602843343523</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09551641359025508</v>
+      </c>
+      <c r="E44">
+        <v>0.06322085284973204</v>
+      </c>
+      <c r="F44">
+        <v>-0.1683655385281363</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02243809062023723</v>
+        <v>-0.02497220688868959</v>
       </c>
       <c r="C46">
-        <v>-0.004613155960039298</v>
+        <v>0.003792640758551907</v>
       </c>
       <c r="D46">
-        <v>0.01084771345155588</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01417689030599628</v>
+      </c>
+      <c r="E46">
+        <v>0.03198430229923263</v>
+      </c>
+      <c r="F46">
+        <v>0.004918923055862899</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05365009978782169</v>
+        <v>-0.05289784011531756</v>
       </c>
       <c r="C47">
-        <v>-0.005810452315782972</v>
+        <v>0.004805103830918144</v>
       </c>
       <c r="D47">
-        <v>0.007362784365636975</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01080054014732882</v>
+      </c>
+      <c r="E47">
+        <v>0.02473448912590862</v>
+      </c>
+      <c r="F47">
+        <v>0.03167358265243867</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04848932204587008</v>
+        <v>-0.05141972037736364</v>
       </c>
       <c r="C48">
-        <v>-0.005405508978531605</v>
+        <v>0.002746804330724063</v>
       </c>
       <c r="D48">
-        <v>0.04773114854098518</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05066791139013524</v>
+      </c>
+      <c r="E48">
+        <v>-0.002859132844969113</v>
+      </c>
+      <c r="F48">
+        <v>-0.01261917160926028</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1985210165921556</v>
+        <v>-0.200170978971846</v>
       </c>
       <c r="C49">
-        <v>-0.02421527135778085</v>
+        <v>0.02201269040996237</v>
       </c>
       <c r="D49">
-        <v>-0.01315995755849275</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.004708069872799038</v>
+      </c>
+      <c r="E49">
+        <v>0.02843908064994917</v>
+      </c>
+      <c r="F49">
+        <v>-0.05063719057062121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04934219796275621</v>
+        <v>-0.05164630811951403</v>
       </c>
       <c r="C50">
-        <v>-0.01345285082228445</v>
+        <v>0.01210714950702112</v>
       </c>
       <c r="D50">
-        <v>0.02158909859580106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02431258559843125</v>
+      </c>
+      <c r="E50">
+        <v>0.03253730416739709</v>
+      </c>
+      <c r="F50">
+        <v>-0.009347785740877461</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1542282195419579</v>
+        <v>-0.1473371449853548</v>
       </c>
       <c r="C52">
-        <v>-0.02203603866757834</v>
+        <v>0.01980835380738873</v>
       </c>
       <c r="D52">
-        <v>0.04080621245022375</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04239886001772696</v>
+      </c>
+      <c r="E52">
+        <v>0.02045150878933153</v>
+      </c>
+      <c r="F52">
+        <v>-0.04199740951451177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1738590995825746</v>
+        <v>-0.1679967229209725</v>
       </c>
       <c r="C53">
-        <v>-0.02330340538380772</v>
+        <v>0.02299639436974185</v>
       </c>
       <c r="D53">
-        <v>0.004438798466644412</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005657576747422806</v>
+      </c>
+      <c r="E53">
+        <v>0.02683930460664741</v>
+      </c>
+      <c r="F53">
+        <v>-0.07550112213576306</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01678418715253104</v>
+        <v>-0.01886345419429843</v>
       </c>
       <c r="C54">
-        <v>-0.01217852279043734</v>
+        <v>0.01107199520748248</v>
       </c>
       <c r="D54">
-        <v>0.02916640092428535</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02925892929408952</v>
+      </c>
+      <c r="E54">
+        <v>0.02125995469943135</v>
+      </c>
+      <c r="F54">
+        <v>0.002268760279192898</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1183313629724108</v>
+        <v>-0.1163543416803883</v>
       </c>
       <c r="C55">
-        <v>-0.02040199737406925</v>
+        <v>0.02016222624318749</v>
       </c>
       <c r="D55">
-        <v>0.003588564165960123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008295397422668296</v>
+      </c>
+      <c r="E55">
+        <v>0.02551660348161048</v>
+      </c>
+      <c r="F55">
+        <v>-0.04668707201108246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1807747993837702</v>
+        <v>-0.1754619814887575</v>
       </c>
       <c r="C56">
-        <v>-0.02141207044787287</v>
+        <v>0.02130397524603444</v>
       </c>
       <c r="D56">
-        <v>-0.007425036658479594</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.002640491697293648</v>
+      </c>
+      <c r="E56">
+        <v>0.03079148047079295</v>
+      </c>
+      <c r="F56">
+        <v>-0.05613613806030116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.0467518819169104</v>
+        <v>-0.04540917981600934</v>
       </c>
       <c r="C58">
-        <v>-0.005095378842272178</v>
+        <v>0.0002192693747398274</v>
       </c>
       <c r="D58">
-        <v>0.06584590020563377</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07627181840350876</v>
+      </c>
+      <c r="E58">
+        <v>0.03604957353426644</v>
+      </c>
+      <c r="F58">
+        <v>0.03653016222896262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1607892455859005</v>
+        <v>-0.1673513504758124</v>
       </c>
       <c r="C59">
-        <v>-0.01796396561215028</v>
+        <v>0.02437331620605906</v>
       </c>
       <c r="D59">
-        <v>-0.2228255417627379</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2163425323147096</v>
+      </c>
+      <c r="E59">
+        <v>-0.05115967615925095</v>
+      </c>
+      <c r="F59">
+        <v>0.04187893297301497</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.23748030859944</v>
+        <v>-0.2294437995194646</v>
       </c>
       <c r="C60">
-        <v>-0.005473773534887006</v>
+        <v>0.002125992616572143</v>
       </c>
       <c r="D60">
-        <v>0.03575658722921785</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03828220910335017</v>
+      </c>
+      <c r="E60">
+        <v>-0.001875702705035463</v>
+      </c>
+      <c r="F60">
+        <v>-0.007100247247702232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.08063370016855764</v>
+        <v>-0.07424591535683892</v>
       </c>
       <c r="C61">
-        <v>-0.01704531487649068</v>
+        <v>0.01156526831601921</v>
       </c>
       <c r="D61">
-        <v>0.1109725812582863</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1172567922010637</v>
+      </c>
+      <c r="E61">
+        <v>0.04054864614822306</v>
+      </c>
+      <c r="F61">
+        <v>-0.007435896282012027</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1726519083892493</v>
+        <v>-0.168635186999063</v>
       </c>
       <c r="C62">
-        <v>-0.02503918117603183</v>
+        <v>0.02387021367068816</v>
       </c>
       <c r="D62">
-        <v>-0.0001077693523192766</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.006576136631146754</v>
+      </c>
+      <c r="E62">
+        <v>0.03316257235341013</v>
+      </c>
+      <c r="F62">
+        <v>-0.04172133410825565</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04196344345719651</v>
+        <v>-0.04616386166321653</v>
       </c>
       <c r="C63">
-        <v>-0.005880668421045573</v>
+        <v>0.002542552399052026</v>
       </c>
       <c r="D63">
-        <v>0.04989483078427523</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06045172135574156</v>
+      </c>
+      <c r="E63">
+        <v>0.02590341639598754</v>
+      </c>
+      <c r="F63">
+        <v>-0.0001468103988755821</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1145350165753608</v>
+        <v>-0.1115290660472271</v>
       </c>
       <c r="C64">
-        <v>-0.0173246833756888</v>
+        <v>0.01399707753475454</v>
       </c>
       <c r="D64">
-        <v>0.03379286940203101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04148772300947335</v>
+      </c>
+      <c r="E64">
+        <v>0.0253036322250089</v>
+      </c>
+      <c r="F64">
+        <v>-0.02735203003038142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1453566033599824</v>
+        <v>-0.1525895464096443</v>
       </c>
       <c r="C65">
-        <v>-0.03737218007389836</v>
+        <v>0.03699536127680952</v>
       </c>
       <c r="D65">
-        <v>-0.05760802690974159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04552237172307004</v>
+      </c>
+      <c r="E65">
+        <v>0.005740919149482774</v>
+      </c>
+      <c r="F65">
+        <v>-0.03773996866747324</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1327363517501781</v>
+        <v>-0.1190706822835836</v>
       </c>
       <c r="C66">
-        <v>-0.02178591733872516</v>
+        <v>0.01507661490426353</v>
       </c>
       <c r="D66">
-        <v>0.13298733314025</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1418923582651765</v>
+      </c>
+      <c r="E66">
+        <v>0.06649904917533971</v>
+      </c>
+      <c r="F66">
+        <v>-0.0272989698653299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06378866863838266</v>
+        <v>-0.05655518493856428</v>
       </c>
       <c r="C67">
-        <v>-0.00671598148371746</v>
+        <v>0.004354705925806134</v>
       </c>
       <c r="D67">
-        <v>0.05576292098062707</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05853028971285513</v>
+      </c>
+      <c r="E67">
+        <v>0.0228412055909185</v>
+      </c>
+      <c r="F67">
+        <v>0.03451774112051896</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1083898778026046</v>
+        <v>-0.1180640905395162</v>
       </c>
       <c r="C68">
-        <v>-0.02634219456520514</v>
+        <v>0.03481562866799493</v>
       </c>
       <c r="D68">
-        <v>-0.2636701650457531</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.260451591829744</v>
+      </c>
+      <c r="E68">
+        <v>-0.08820702391683906</v>
+      </c>
+      <c r="F68">
+        <v>-0.0005668603785785793</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.0390853471733106</v>
+        <v>-0.03823260858000188</v>
       </c>
       <c r="C69">
-        <v>-0.002546653903720563</v>
+        <v>0.001579262083619028</v>
       </c>
       <c r="D69">
-        <v>0.00808806257830373</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.009476223243014822</v>
+      </c>
+      <c r="E69">
+        <v>0.02833767245338288</v>
+      </c>
+      <c r="F69">
+        <v>0.0009142295504223838</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.0679961120221322</v>
+        <v>-0.06765431312919079</v>
       </c>
       <c r="C70">
-        <v>0.0239139959384837</v>
+        <v>-0.02617918328085834</v>
       </c>
       <c r="D70">
-        <v>0.02313575165161783</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.0282665990329814</v>
+      </c>
+      <c r="E70">
+        <v>-0.02457704780816199</v>
+      </c>
+      <c r="F70">
+        <v>0.1820013601955512</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1272421350065841</v>
+        <v>-0.1382287005657464</v>
       </c>
       <c r="C71">
-        <v>-0.03116380913213907</v>
+        <v>0.03951690050005592</v>
       </c>
       <c r="D71">
-        <v>-0.2787675791189084</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.269293890295093</v>
+      </c>
+      <c r="E71">
+        <v>-0.09702497808891131</v>
+      </c>
+      <c r="F71">
+        <v>-0.005774883849184538</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1363701641836967</v>
+        <v>-0.1435217326355325</v>
       </c>
       <c r="C72">
-        <v>-0.02941008165646172</v>
+        <v>0.02965595783711523</v>
       </c>
       <c r="D72">
-        <v>-0.0006941988188940327</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.003851539513527593</v>
+      </c>
+      <c r="E72">
+        <v>0.03895029506326329</v>
+      </c>
+      <c r="F72">
+        <v>-0.02837216456399472</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2031231795165076</v>
+        <v>-0.2039776404039324</v>
       </c>
       <c r="C73">
-        <v>-0.01936698041317848</v>
+        <v>0.01542047134109298</v>
       </c>
       <c r="D73">
-        <v>0.007919296687270597</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01827524168006779</v>
+      </c>
+      <c r="E73">
+        <v>0.06337884980938238</v>
+      </c>
+      <c r="F73">
+        <v>-0.04498547868850112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09061437955669033</v>
+        <v>-0.09164444314037001</v>
       </c>
       <c r="C74">
-        <v>-0.01502054095477516</v>
+        <v>0.01434335982271242</v>
       </c>
       <c r="D74">
-        <v>0.01384912032012679</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01672516295384943</v>
+      </c>
+      <c r="E74">
+        <v>0.04173157919343051</v>
+      </c>
+      <c r="F74">
+        <v>-0.052574323017283</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1330281681851635</v>
+        <v>-0.1252289831457512</v>
       </c>
       <c r="C75">
-        <v>-0.032600520581191</v>
+        <v>0.03062461218423442</v>
       </c>
       <c r="D75">
-        <v>0.02338574480604328</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02926337060522155</v>
+      </c>
+      <c r="E75">
+        <v>0.05523773749935627</v>
+      </c>
+      <c r="F75">
+        <v>-0.02157844051398722</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08122619257538753</v>
+        <v>-0.09191247938695721</v>
       </c>
       <c r="C77">
-        <v>-0.01467479192719631</v>
+        <v>0.009466506865000435</v>
       </c>
       <c r="D77">
-        <v>0.1133051766327106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1167097169376249</v>
+      </c>
+      <c r="E77">
+        <v>0.04838360941147087</v>
+      </c>
+      <c r="F77">
+        <v>-0.03592959756233088</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1017102376209499</v>
+        <v>-0.1014315108293543</v>
       </c>
       <c r="C78">
-        <v>-0.04545467719472086</v>
+        <v>0.04136339509367494</v>
       </c>
       <c r="D78">
-        <v>0.1110838251374887</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1102413169963831</v>
+      </c>
+      <c r="E78">
+        <v>0.07546631676327926</v>
+      </c>
+      <c r="F78">
+        <v>-0.04987341346685315</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.166924114434885</v>
+        <v>-0.1634795057386359</v>
       </c>
       <c r="C79">
-        <v>-0.02796723663668867</v>
+        <v>0.02656700557473793</v>
       </c>
       <c r="D79">
-        <v>0.005745441877344329</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01211940302341467</v>
+      </c>
+      <c r="E79">
+        <v>0.04478197697897757</v>
+      </c>
+      <c r="F79">
+        <v>-0.01282935939345278</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08091036813929525</v>
+        <v>-0.07933718779333064</v>
       </c>
       <c r="C80">
-        <v>-0.003169342245470996</v>
+        <v>0.0002836891523218849</v>
       </c>
       <c r="D80">
-        <v>0.05278303925897254</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05344729152500195</v>
+      </c>
+      <c r="E80">
+        <v>0.03702018337824069</v>
+      </c>
+      <c r="F80">
+        <v>0.02819234972679942</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1203024049647121</v>
+        <v>-0.1153315073230518</v>
       </c>
       <c r="C81">
-        <v>-0.0344928177230832</v>
+        <v>0.03385979832834503</v>
       </c>
       <c r="D81">
-        <v>0.007361104345032921</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01197910457758824</v>
+      </c>
+      <c r="E81">
+        <v>0.05171200172572109</v>
+      </c>
+      <c r="F81">
+        <v>-0.01855443713705905</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1655476456340035</v>
+        <v>-0.164181216951944</v>
       </c>
       <c r="C82">
-        <v>-0.02814372243678906</v>
+        <v>0.02844097539203059</v>
       </c>
       <c r="D82">
-        <v>0.005501999380066572</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.002993507802414403</v>
+      </c>
+      <c r="E82">
+        <v>0.02479550482644323</v>
+      </c>
+      <c r="F82">
+        <v>-0.08340306053529892</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06100128805539353</v>
+        <v>-0.0551676943417672</v>
       </c>
       <c r="C83">
-        <v>-0.006110260798317556</v>
+        <v>0.003958074703389098</v>
       </c>
       <c r="D83">
-        <v>0.03642812249741711</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03994393685755604</v>
+      </c>
+      <c r="E83">
+        <v>5.013145405814517e-06</v>
+      </c>
+      <c r="F83">
+        <v>0.0363347472028626</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05922338061217371</v>
+        <v>-0.05503247316352166</v>
       </c>
       <c r="C84">
-        <v>-0.01345654828307956</v>
+        <v>0.01068400278672355</v>
       </c>
       <c r="D84">
-        <v>0.07305915418271819</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07509828405760692</v>
+      </c>
+      <c r="E84">
+        <v>0.01197159940820327</v>
+      </c>
+      <c r="F84">
+        <v>-0.01513590809691551</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1398267391099215</v>
+        <v>-0.1349669942413072</v>
       </c>
       <c r="C85">
-        <v>-0.03181767500243</v>
+        <v>0.03113210426016361</v>
       </c>
       <c r="D85">
-        <v>0.005558380257829928</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009127919144671539</v>
+      </c>
+      <c r="E85">
+        <v>0.03523114177848157</v>
+      </c>
+      <c r="F85">
+        <v>-0.04927536026245147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.09906037123330566</v>
+        <v>-0.09211218840987126</v>
       </c>
       <c r="C86">
-        <v>0.00219505257220833</v>
+        <v>-0.005313005977696715</v>
       </c>
       <c r="D86">
-        <v>0.01656394799061412</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05004575123444067</v>
+      </c>
+      <c r="E86">
+        <v>0.2288171033068937</v>
+      </c>
+      <c r="F86">
+        <v>0.8954057391608173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09468933566858921</v>
+        <v>-0.09145028842127989</v>
       </c>
       <c r="C87">
-        <v>-0.0287267898697257</v>
+        <v>0.02085412893041029</v>
       </c>
       <c r="D87">
-        <v>0.07018758587697432</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08987897107499999</v>
+      </c>
+      <c r="E87">
+        <v>-0.0579367582249698</v>
+      </c>
+      <c r="F87">
+        <v>-0.04971683647703894</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06316457282058247</v>
+        <v>-0.06138196089819969</v>
       </c>
       <c r="C88">
-        <v>-0.006306874918240694</v>
+        <v>0.003332506098674827</v>
       </c>
       <c r="D88">
-        <v>0.04865907865802053</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04956642341639604</v>
+      </c>
+      <c r="E88">
+        <v>0.02648353338118675</v>
+      </c>
+      <c r="F88">
+        <v>-0.01359699854019204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1189378828834338</v>
+        <v>-0.1276136328701974</v>
       </c>
       <c r="C89">
-        <v>-0.007037659920324088</v>
+        <v>0.01465650547031186</v>
       </c>
       <c r="D89">
-        <v>-0.2397627996035508</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2409506651768341</v>
+      </c>
+      <c r="E89">
+        <v>-0.08964150271745515</v>
+      </c>
+      <c r="F89">
+        <v>0.007921903397696503</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1389432136005737</v>
+        <v>-0.1531111092270663</v>
       </c>
       <c r="C90">
-        <v>-0.02721402004844661</v>
+        <v>0.03611209767956166</v>
       </c>
       <c r="D90">
-        <v>-0.2655589618192638</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.266907283038675</v>
+      </c>
+      <c r="E90">
+        <v>-0.1147131944633187</v>
+      </c>
+      <c r="F90">
+        <v>0.008809501608141259</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.122463364169237</v>
+        <v>-0.1200204187128579</v>
       </c>
       <c r="C91">
-        <v>-0.02250040328401502</v>
+        <v>0.02244240978721595</v>
       </c>
       <c r="D91">
-        <v>-0.02153973999558283</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0175008793364839</v>
+      </c>
+      <c r="E91">
+        <v>0.05414644367218348</v>
+      </c>
+      <c r="F91">
+        <v>0.001668357125097299</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1393838540119388</v>
+        <v>-0.1458487445444184</v>
       </c>
       <c r="C92">
-        <v>-0.01798769632237645</v>
+        <v>0.02693345999676544</v>
       </c>
       <c r="D92">
-        <v>-0.2946778192537079</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2919288691834377</v>
+      </c>
+      <c r="E92">
+        <v>-0.1014031085426887</v>
+      </c>
+      <c r="F92">
+        <v>0.01919264097121988</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1426028507838469</v>
+        <v>-0.1551748377875809</v>
       </c>
       <c r="C93">
-        <v>-0.02349035228187688</v>
+        <v>0.03128395871579979</v>
       </c>
       <c r="D93">
-        <v>-0.2632972346631003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.262266219791874</v>
+      </c>
+      <c r="E93">
+        <v>-0.07418644011760543</v>
+      </c>
+      <c r="F93">
+        <v>-0.003221910169983412</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1329996564192202</v>
+        <v>-0.1250133004676467</v>
       </c>
       <c r="C94">
-        <v>-0.02896204759158744</v>
+        <v>0.02650932128643081</v>
       </c>
       <c r="D94">
-        <v>0.03851955125275018</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.0415129472987874</v>
+      </c>
+      <c r="E94">
+        <v>0.05639352386364064</v>
+      </c>
+      <c r="F94">
+        <v>-0.03220838487264144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1268183849613932</v>
+        <v>-0.129918742305969</v>
       </c>
       <c r="C95">
-        <v>-0.01114087986683199</v>
+        <v>0.005841578427821311</v>
       </c>
       <c r="D95">
-        <v>0.08839766297544693</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09826822865025636</v>
+      </c>
+      <c r="E95">
+        <v>0.05943758637555552</v>
+      </c>
+      <c r="F95">
+        <v>-0.004945572972744506</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1346778522671489</v>
+        <v>-0.1264223692619252</v>
       </c>
       <c r="C96">
-        <v>0.98518885430419</v>
+        <v>-0.9852939484061436</v>
       </c>
       <c r="D96">
-        <v>-0.01992976681417118</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04970953431758222</v>
+      </c>
+      <c r="E96">
+        <v>0.04974778416726197</v>
+      </c>
+      <c r="F96">
+        <v>-0.04299500381528632</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1911596686568702</v>
+        <v>-0.1946250883833151</v>
       </c>
       <c r="C97">
-        <v>0.001944746028142452</v>
+        <v>-0.002250841243823827</v>
       </c>
       <c r="D97">
-        <v>-0.02827677427445577</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02883971706449603</v>
+      </c>
+      <c r="E97">
+        <v>0.03725233936321164</v>
+      </c>
+      <c r="F97">
+        <v>0.122467655606448</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1999356063527878</v>
+        <v>-0.2060475529353098</v>
       </c>
       <c r="C98">
-        <v>-0.01413316327505588</v>
+        <v>0.01014039788971238</v>
       </c>
       <c r="D98">
-        <v>0.0115227897113693</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01373193484371141</v>
+      </c>
+      <c r="E98">
+        <v>-0.08133336173966467</v>
+      </c>
+      <c r="F98">
+        <v>0.09441049200064439</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05684567720751252</v>
+        <v>-0.05613525463180524</v>
       </c>
       <c r="C99">
-        <v>0.001203760508433008</v>
+        <v>-0.003302792754834277</v>
       </c>
       <c r="D99">
-        <v>0.03445711967177872</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04087977017334428</v>
+      </c>
+      <c r="E99">
+        <v>0.02593266131844089</v>
+      </c>
+      <c r="F99">
+        <v>-0.002722753218063431</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1485715222801618</v>
+        <v>-0.1343146019266581</v>
       </c>
       <c r="C100">
-        <v>0.03563072074008693</v>
+        <v>-0.0475473331292696</v>
       </c>
       <c r="D100">
-        <v>0.3975554406544254</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3598642489948751</v>
+      </c>
+      <c r="E100">
+        <v>-0.8803266817609807</v>
+      </c>
+      <c r="F100">
+        <v>0.1571959096331789</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.0262734206778051</v>
+        <v>-0.02894130521959757</v>
       </c>
       <c r="C101">
-        <v>-0.01011467823064129</v>
+        <v>0.009348188354973815</v>
       </c>
       <c r="D101">
-        <v>0.02921419087690453</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02992156097198789</v>
+      </c>
+      <c r="E101">
+        <v>0.01830349788327442</v>
+      </c>
+      <c r="F101">
+        <v>0.01456600983156415</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
